--- a/static/pricelist/EUR/safespring-price-list_2020-09-23.xlsx
+++ b/static/pricelist/EUR/safespring-price-list_2020-09-23.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/safespring/Documents/github/web/static/pricelist/EUR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C60E1F66-6A1A-9F48-9D85-007038705F73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="yPSIPgiPFfNAbIl3RQCeM7c5iKgtQNrJUvTqWj5F0VLdN4TiVxZEWeDWk+fvE+aQRbb8OrAgSzJg6bYdoSg78A==" workbookSaltValue="eZlXWpoTI//SuZdMSkixZQ==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E87954-F6D2-7743-B70E-39760354D723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="530" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EUR - Safespring priser 2020" sheetId="8" r:id="rId1"/>
-    <sheet name="SEK - Safespring priser 2020" sheetId="3" state="hidden" r:id="rId2"/>
-    <sheet name="SUNET SEK - priser 2020" sheetId="9" state="hidden" r:id="rId3"/>
-    <sheet name="Data" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="SEK - Safespring priser 2020" sheetId="3" r:id="rId2"/>
+    <sheet name="SUNET SEK - priser 2020" sheetId="9" r:id="rId3"/>
+    <sheet name="Data" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="BAAS_large_EUR">Data!$F$27</definedName>
@@ -6238,7 +6237,7 @@
   </sheetPr>
   <dimension ref="A1:AI606"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="93" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="93" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -15936,7 +15935,7 @@
       <c r="O606" s="445"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CD5OSUyITsEqOukCsKNZ61VAB+5ajyh/FZeI4fX9CTdq0H1+xR7ll2NR4uF8gAvDhWDGIxK/g0Gxj4ndHm4i/w==" saltValue="96MGt0Cw6uZOlxBUK1O3UQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="65">
     <mergeCell ref="B216:C216"/>
     <mergeCell ref="B218:C218"/>
@@ -25821,7 +25820,7 @@
       <c r="O606" s="445"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iCRymnWRSVrAq7vuNPaw6UUCQfIRVT3QCEeothFwThv79uva65KqarPjt2o2Wj7F1rJcapK2zUtXphacR2kAVA==" saltValue="527GtpUUSJKUQH1Q3PMY+w==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="68">
     <mergeCell ref="J99:K99"/>
     <mergeCell ref="H100:I100"/>
@@ -34820,7 +34819,7 @@
       <c r="O553" s="445"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PAhRP2oVnP6BPSuqcKb+pygwHp4vsJP26Doww3F+0NAGabIMmjkeBGI9Xo0UuL3oPKBcsFJRjasggRHyQ3j6DA==" saltValue="P4n/2reYZ9DaXnOes6/Ihg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="58">
     <mergeCell ref="M121:N121"/>
     <mergeCell ref="M122:N122"/>
@@ -35049,7 +35048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569B51D8-70CF-F642-A2B5-EAC405C5F533}">
   <dimension ref="B1:N69"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
@@ -36393,7 +36392,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GQ/SpRGktE4Lz7zVAi05+d/9SaV0N0XN5amdHw27519R0MRFRJEWzil8m85AkntHpaMWxCo9nPWjVNnrC3LVCQ==" saltValue="tTWatWJKRpLeuI6dsyZhwg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J9">
     <cfRule type="cellIs" dxfId="27" priority="39" operator="greaterThan">

--- a/static/pricelist/EUR/safespring-price-list_2020-09-23.xlsx
+++ b/static/pricelist/EUR/safespring-price-list_2020-09-23.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/safespring/Documents/github/web/static/pricelist/EUR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E87954-F6D2-7743-B70E-39760354D723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012537FA-E9DC-6049-9184-DEDF854C9052}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="EXt7iEWsjueYOL/D/qsr2XYbRmTWlGOb3Q3qvNksLDv0k45T+ULodzoJ/Ts1+RB90d5p1XORgZqPZOEguvOHjw==" workbookSaltValue="yJPtuaj7ZNWIKLkZmZFBfg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="530" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EUR - Safespring priser 2020" sheetId="8" r:id="rId1"/>
-    <sheet name="SEK - Safespring priser 2020" sheetId="3" r:id="rId2"/>
-    <sheet name="SUNET SEK - priser 2020" sheetId="9" r:id="rId3"/>
-    <sheet name="Data" sheetId="4" r:id="rId4"/>
+    <sheet name="SEK - Safespring priser 2020" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="SUNET SEK - priser 2020" sheetId="9" state="hidden" r:id="rId3"/>
+    <sheet name="Data" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="BAAS_large_EUR">Data!$F$27</definedName>
@@ -4637,16 +4638,16 @@
       <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="175" fontId="6" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="37" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="36" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -4657,76 +4658,20 @@
       <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="2" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4785,28 +4730,108 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="37" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="175" fontId="6" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="36" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="37" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="8" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4849,27 +4874,27 @@
       <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="6" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="37" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="4" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="6" fontId="37" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
@@ -4879,30 +4904,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="37" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -6237,7 +6238,7 @@
   </sheetPr>
   <dimension ref="A1:AI606"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="93" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A198" zoomScale="93" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -6317,8 +6318,8 @@
     </row>
     <row r="4" spans="1:29" s="169" customFormat="1" ht="25.5" customHeight="1">
       <c r="A4" s="165"/>
-      <c r="B4" s="637"/>
-      <c r="C4" s="637"/>
+      <c r="B4" s="677"/>
+      <c r="C4" s="677"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="165"/>
@@ -8807,12 +8808,12 @@
       <c r="E81" s="140" t="s">
         <v>220</v>
       </c>
-      <c r="F81" s="640" t="s">
+      <c r="F81" s="662" t="s">
         <v>230</v>
       </c>
-      <c r="G81" s="640"/>
-      <c r="H81" s="641"/>
-      <c r="I81" s="641"/>
+      <c r="G81" s="662"/>
+      <c r="H81" s="660"/>
+      <c r="I81" s="660"/>
       <c r="J81" s="288" t="s">
         <v>24</v>
       </c>
@@ -8840,13 +8841,13 @@
         <f>F82/720</f>
         <v>1.5786333333333332E-4</v>
       </c>
-      <c r="F82" s="635">
+      <c r="F82" s="675">
         <f>VOLUME_large_EUR</f>
         <v>0.11366159999999999</v>
       </c>
-      <c r="G82" s="635"/>
-      <c r="H82" s="636"/>
-      <c r="I82" s="636"/>
+      <c r="G82" s="675"/>
+      <c r="H82" s="676"/>
+      <c r="I82" s="676"/>
       <c r="J82" s="294"/>
       <c r="K82" s="295" t="s">
         <v>26</v>
@@ -8872,13 +8873,13 @@
         <f>F83/720</f>
         <v>4.7358999999999997E-4</v>
       </c>
-      <c r="F83" s="644">
+      <c r="F83" s="669">
         <f>VOLUME_fast_EUR</f>
         <v>0.34098479999999998</v>
       </c>
-      <c r="G83" s="644"/>
-      <c r="H83" s="645"/>
-      <c r="I83" s="645"/>
+      <c r="G83" s="669"/>
+      <c r="H83" s="670"/>
+      <c r="I83" s="670"/>
       <c r="J83" s="298"/>
       <c r="K83" s="299" t="s">
         <v>26</v>
@@ -9013,13 +9014,13 @@
       <c r="P90" s="192"/>
     </row>
     <row r="91" spans="2:25" s="188" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B91" s="646" t="s">
+      <c r="B91" s="671" t="s">
         <v>231</v>
       </c>
-      <c r="C91" s="646"/>
-      <c r="D91" s="646"/>
-      <c r="E91" s="646"/>
-      <c r="F91" s="646"/>
+      <c r="C91" s="671"/>
+      <c r="D91" s="671"/>
+      <c r="E91" s="671"/>
+      <c r="F91" s="671"/>
       <c r="H91" s="189"/>
       <c r="J91" s="190"/>
       <c r="K91" s="190"/>
@@ -9029,13 +9030,13 @@
       <c r="P91" s="200"/>
     </row>
     <row r="92" spans="2:25" s="315" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B92" s="647" t="s">
+      <c r="B92" s="672" t="s">
         <v>298</v>
       </c>
-      <c r="C92" s="647"/>
-      <c r="D92" s="647"/>
-      <c r="E92" s="647"/>
-      <c r="F92" s="647"/>
+      <c r="C92" s="672"/>
+      <c r="D92" s="672"/>
+      <c r="E92" s="672"/>
+      <c r="F92" s="672"/>
       <c r="G92" s="309"/>
       <c r="H92" s="310"/>
       <c r="I92" s="309"/>
@@ -9094,16 +9095,16 @@
       <c r="C95" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="D95" s="640" t="s">
+      <c r="D95" s="662" t="s">
         <v>233</v>
       </c>
-      <c r="E95" s="640"/>
-      <c r="F95" s="640"/>
-      <c r="G95" s="640"/>
-      <c r="H95" s="640"/>
-      <c r="I95" s="640"/>
-      <c r="J95" s="640"/>
-      <c r="K95" s="640"/>
+      <c r="E95" s="662"/>
+      <c r="F95" s="662"/>
+      <c r="G95" s="662"/>
+      <c r="H95" s="662"/>
+      <c r="I95" s="662"/>
+      <c r="J95" s="662"/>
+      <c r="K95" s="662"/>
       <c r="L95" s="289"/>
       <c r="M95" s="286"/>
       <c r="N95" s="286"/>
@@ -9119,17 +9120,17 @@
       <c r="C96" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="D96" s="642">
+      <c r="D96" s="673">
         <f>S3_storage.50_EUR</f>
         <v>33.151299999999999</v>
       </c>
-      <c r="E96" s="642"/>
-      <c r="F96" s="643"/>
-      <c r="G96" s="643"/>
-      <c r="H96" s="643"/>
-      <c r="I96" s="643"/>
-      <c r="J96" s="643"/>
-      <c r="K96" s="643"/>
+      <c r="E96" s="673"/>
+      <c r="F96" s="674"/>
+      <c r="G96" s="674"/>
+      <c r="H96" s="674"/>
+      <c r="I96" s="674"/>
+      <c r="J96" s="674"/>
+      <c r="K96" s="674"/>
       <c r="L96" s="316"/>
       <c r="M96" s="317"/>
       <c r="N96" s="317"/>
@@ -9145,17 +9146,17 @@
       <c r="C97" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="D97" s="650">
+      <c r="D97" s="658">
         <f>S3_storage.100_EUR</f>
         <v>25.57386</v>
       </c>
-      <c r="E97" s="650"/>
-      <c r="F97" s="651"/>
-      <c r="G97" s="651"/>
-      <c r="H97" s="651"/>
-      <c r="I97" s="651"/>
-      <c r="J97" s="651"/>
-      <c r="K97" s="651"/>
+      <c r="E97" s="658"/>
+      <c r="F97" s="659"/>
+      <c r="G97" s="659"/>
+      <c r="H97" s="659"/>
+      <c r="I97" s="659"/>
+      <c r="J97" s="659"/>
+      <c r="K97" s="659"/>
       <c r="L97" s="318"/>
       <c r="M97" s="319"/>
       <c r="N97" s="319"/>
@@ -9171,17 +9172,17 @@
       <c r="C98" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D98" s="648">
+      <c r="D98" s="667">
         <f>S3_storage.500_EUR</f>
         <v>18.9436</v>
       </c>
-      <c r="E98" s="648"/>
-      <c r="F98" s="649"/>
-      <c r="G98" s="649"/>
-      <c r="H98" s="649"/>
-      <c r="I98" s="649"/>
-      <c r="J98" s="649"/>
-      <c r="K98" s="649"/>
+      <c r="E98" s="667"/>
+      <c r="F98" s="668"/>
+      <c r="G98" s="668"/>
+      <c r="H98" s="668"/>
+      <c r="I98" s="668"/>
+      <c r="J98" s="668"/>
+      <c r="K98" s="668"/>
       <c r="L98" s="320"/>
       <c r="M98" s="321"/>
       <c r="N98" s="321"/>
@@ -9197,17 +9198,17 @@
       <c r="C99" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="D99" s="650">
+      <c r="D99" s="658">
         <f>S3_storage.1000_EUR</f>
         <v>17.522829999999999</v>
       </c>
-      <c r="E99" s="650"/>
-      <c r="F99" s="651"/>
-      <c r="G99" s="651"/>
-      <c r="H99" s="651"/>
-      <c r="I99" s="651"/>
-      <c r="J99" s="651"/>
-      <c r="K99" s="651"/>
+      <c r="E99" s="658"/>
+      <c r="F99" s="659"/>
+      <c r="G99" s="659"/>
+      <c r="H99" s="659"/>
+      <c r="I99" s="659"/>
+      <c r="J99" s="659"/>
+      <c r="K99" s="659"/>
       <c r="L99" s="318"/>
       <c r="M99" s="319"/>
       <c r="N99" s="319"/>
@@ -9223,17 +9224,17 @@
       <c r="C100" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D100" s="652" t="str">
+      <c r="D100" s="661" t="str">
         <f>S3_storage.quote_EUR</f>
         <v>Ask for quote</v>
       </c>
-      <c r="E100" s="652"/>
-      <c r="F100" s="652"/>
-      <c r="G100" s="652"/>
-      <c r="H100" s="652"/>
-      <c r="I100" s="652"/>
-      <c r="J100" s="652"/>
-      <c r="K100" s="652"/>
+      <c r="E100" s="661"/>
+      <c r="F100" s="661"/>
+      <c r="G100" s="661"/>
+      <c r="H100" s="661"/>
+      <c r="I100" s="661"/>
+      <c r="J100" s="661"/>
+      <c r="K100" s="661"/>
       <c r="L100" s="322"/>
       <c r="M100" s="323"/>
       <c r="N100" s="323"/>
@@ -9294,10 +9295,10 @@
       <c r="E103" s="139" t="s">
         <v>220</v>
       </c>
-      <c r="F103" s="640" t="s">
+      <c r="F103" s="662" t="s">
         <v>234</v>
       </c>
-      <c r="G103" s="640"/>
+      <c r="G103" s="662"/>
       <c r="H103" s="288" t="s">
         <v>232</v>
       </c>
@@ -9324,11 +9325,11 @@
         <f t="array" ref="E104">_xlfn.IFS(H104&lt;1001,F104/720,H104&gt;1000,D100)</f>
         <v>4.6043472222222222E-2</v>
       </c>
-      <c r="F104" s="653" cm="1">
+      <c r="F104" s="663" cm="1">
         <f t="array" ref="F104">_xlfn.IFS(H104&lt;51,D96,H104&lt;101,D97,H104&lt;501,D98,H104&lt;1001,D99,H104&gt;1000,D100)</f>
         <v>33.151299999999999</v>
       </c>
-      <c r="G104" s="654"/>
+      <c r="G104" s="664"/>
       <c r="H104" s="326">
         <v>0</v>
       </c>
@@ -9476,13 +9477,13 @@
       <c r="P111" s="192"/>
     </row>
     <row r="112" spans="2:24" s="188" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B112" s="655" t="s">
+      <c r="B112" s="665" t="s">
         <v>299</v>
       </c>
-      <c r="C112" s="655"/>
-      <c r="D112" s="655"/>
-      <c r="E112" s="655"/>
-      <c r="F112" s="655"/>
+      <c r="C112" s="665"/>
+      <c r="D112" s="665"/>
+      <c r="E112" s="665"/>
+      <c r="F112" s="665"/>
       <c r="H112" s="189"/>
       <c r="J112" s="190"/>
       <c r="K112" s="190"/>
@@ -9568,23 +9569,23 @@
       <c r="B116" s="513" t="s">
         <v>219</v>
       </c>
-      <c r="C116" s="656" t="s">
+      <c r="C116" s="666" t="s">
         <v>241</v>
       </c>
-      <c r="D116" s="656"/>
+      <c r="D116" s="666"/>
       <c r="E116" s="139"/>
-      <c r="F116" s="640" t="s">
+      <c r="F116" s="662" t="s">
         <v>240</v>
       </c>
-      <c r="G116" s="640"/>
+      <c r="G116" s="662"/>
       <c r="H116" s="288" t="s">
         <v>30</v>
       </c>
       <c r="I116" s="286"/>
-      <c r="J116" s="641" t="s">
+      <c r="J116" s="660" t="s">
         <v>239</v>
       </c>
-      <c r="K116" s="641"/>
+      <c r="K116" s="660"/>
       <c r="L116" s="287"/>
       <c r="M116" s="286"/>
       <c r="N116" s="289" t="s">
@@ -9595,29 +9596,29 @@
     </row>
     <row r="117" spans="1:35" ht="25.5" customHeight="1">
       <c r="A117" s="337"/>
-      <c r="B117" s="658" t="s">
+      <c r="B117" s="644" t="s">
         <v>106</v>
       </c>
-      <c r="C117" s="658"/>
+      <c r="C117" s="644"/>
       <c r="D117" s="544" t="s">
         <v>25</v>
       </c>
       <c r="E117" s="31"/>
-      <c r="F117" s="659">
+      <c r="F117" s="645">
         <f>BAAS_on.demand_EUR</f>
         <v>0.23205910000000002</v>
       </c>
-      <c r="G117" s="660"/>
+      <c r="G117" s="646"/>
       <c r="H117" s="338">
         <v>0</v>
       </c>
       <c r="I117" s="295" t="s">
         <v>26</v>
       </c>
-      <c r="J117" s="661" t="s">
+      <c r="J117" s="647" t="s">
         <v>25</v>
       </c>
-      <c r="K117" s="661"/>
+      <c r="K117" s="647"/>
       <c r="L117" s="339"/>
       <c r="M117" s="295"/>
       <c r="N117" s="465">
@@ -9629,30 +9630,30 @@
     </row>
     <row r="118" spans="1:35" ht="25.5" customHeight="1">
       <c r="A118" s="337"/>
-      <c r="B118" s="662" t="s">
+      <c r="B118" s="648" t="s">
         <v>107</v>
       </c>
-      <c r="C118" s="662"/>
+      <c r="C118" s="648"/>
       <c r="D118" s="545">
         <f>BAAS_small.fee_EUR</f>
         <v>520.94899999999996</v>
       </c>
       <c r="E118" s="34"/>
-      <c r="F118" s="663">
+      <c r="F118" s="649">
         <f>BAAS_small_EUR</f>
         <v>0.1657565</v>
       </c>
-      <c r="G118" s="664"/>
+      <c r="G118" s="650"/>
       <c r="H118" s="340">
         <v>0</v>
       </c>
       <c r="I118" s="299" t="s">
         <v>26</v>
       </c>
-      <c r="J118" s="665">
+      <c r="J118" s="651">
         <v>0.75</v>
       </c>
-      <c r="K118" s="666"/>
+      <c r="K118" s="652"/>
       <c r="L118" s="299"/>
       <c r="M118" s="299"/>
       <c r="N118" s="466">
@@ -9664,30 +9665,30 @@
     </row>
     <row r="119" spans="1:35" s="344" customFormat="1" ht="25.5" customHeight="1">
       <c r="A119" s="341"/>
-      <c r="B119" s="667" t="s">
+      <c r="B119" s="653" t="s">
         <v>108</v>
       </c>
-      <c r="C119" s="667"/>
+      <c r="C119" s="653"/>
       <c r="D119" s="546">
         <f>BAAS_large.fee_EUR</f>
         <v>899.82099999999991</v>
       </c>
       <c r="E119" s="37"/>
-      <c r="F119" s="668">
+      <c r="F119" s="654">
         <f>BAAS_large_EUR</f>
         <v>8.7140560000000006E-2</v>
       </c>
-      <c r="G119" s="669"/>
+      <c r="G119" s="655"/>
       <c r="H119" s="326">
         <v>0</v>
       </c>
       <c r="I119" s="327" t="s">
         <v>26</v>
       </c>
-      <c r="J119" s="670">
+      <c r="J119" s="656">
         <v>0.75</v>
       </c>
-      <c r="K119" s="671"/>
+      <c r="K119" s="657"/>
       <c r="L119" s="327"/>
       <c r="M119" s="327"/>
       <c r="N119" s="467">
@@ -10018,11 +10019,11 @@
       <c r="P133" s="221"/>
     </row>
     <row r="134" spans="2:27" s="188" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B134" s="657"/>
-      <c r="C134" s="657"/>
-      <c r="D134" s="657"/>
-      <c r="E134" s="657"/>
-      <c r="F134" s="657"/>
+      <c r="B134" s="640"/>
+      <c r="C134" s="640"/>
+      <c r="D134" s="640"/>
+      <c r="E134" s="640"/>
+      <c r="F134" s="640"/>
       <c r="G134" s="195"/>
       <c r="H134" s="196"/>
       <c r="I134" s="195"/>
@@ -11055,11 +11056,11 @@
       <c r="P173" s="221"/>
     </row>
     <row r="174" spans="2:23" s="188" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B174" s="657"/>
-      <c r="C174" s="657"/>
-      <c r="D174" s="657"/>
-      <c r="E174" s="657"/>
-      <c r="F174" s="657"/>
+      <c r="B174" s="640"/>
+      <c r="C174" s="640"/>
+      <c r="D174" s="640"/>
+      <c r="E174" s="640"/>
+      <c r="F174" s="640"/>
       <c r="G174" s="195"/>
       <c r="H174" s="196"/>
       <c r="I174" s="195"/>
@@ -11881,14 +11882,14 @@
     </row>
     <row r="205" spans="1:23" s="188" customFormat="1" ht="25.5" customHeight="1">
       <c r="A205" s="170"/>
-      <c r="B205" s="675" t="s">
+      <c r="B205" s="641" t="s">
         <v>255</v>
       </c>
-      <c r="C205" s="675"/>
-      <c r="D205" s="675"/>
-      <c r="E205" s="675"/>
-      <c r="F205" s="675"/>
-      <c r="G205" s="675"/>
+      <c r="C205" s="641"/>
+      <c r="D205" s="641"/>
+      <c r="E205" s="641"/>
+      <c r="F205" s="641"/>
+      <c r="G205" s="641"/>
       <c r="H205" s="173"/>
       <c r="I205" s="170"/>
       <c r="J205" s="174"/>
@@ -11901,12 +11902,12 @@
     </row>
     <row r="206" spans="1:23" s="188" customFormat="1" ht="25.5" customHeight="1">
       <c r="A206" s="170"/>
-      <c r="B206" s="675"/>
-      <c r="C206" s="675"/>
-      <c r="D206" s="675"/>
-      <c r="E206" s="675"/>
-      <c r="F206" s="675"/>
-      <c r="G206" s="675"/>
+      <c r="B206" s="641"/>
+      <c r="C206" s="641"/>
+      <c r="D206" s="641"/>
+      <c r="E206" s="641"/>
+      <c r="F206" s="641"/>
+      <c r="G206" s="641"/>
       <c r="H206" s="173"/>
       <c r="I206" s="170"/>
       <c r="J206" s="174"/>
@@ -11919,12 +11920,12 @@
     </row>
     <row r="207" spans="1:23" s="188" customFormat="1" ht="25.5" customHeight="1">
       <c r="A207" s="170"/>
-      <c r="B207" s="675"/>
-      <c r="C207" s="675"/>
-      <c r="D207" s="675"/>
-      <c r="E207" s="675"/>
-      <c r="F207" s="675"/>
-      <c r="G207" s="675"/>
+      <c r="B207" s="641"/>
+      <c r="C207" s="641"/>
+      <c r="D207" s="641"/>
+      <c r="E207" s="641"/>
+      <c r="F207" s="641"/>
+      <c r="G207" s="641"/>
       <c r="H207" s="173"/>
       <c r="I207" s="170"/>
       <c r="J207" s="174"/>
@@ -11937,13 +11938,13 @@
     </row>
     <row r="208" spans="1:23" s="188" customFormat="1" ht="25.5" customHeight="1">
       <c r="A208" s="170"/>
-      <c r="B208" s="676" t="s">
+      <c r="B208" s="642" t="s">
         <v>217</v>
       </c>
-      <c r="C208" s="676"/>
-      <c r="D208" s="676"/>
-      <c r="E208" s="676"/>
-      <c r="F208" s="676"/>
+      <c r="C208" s="642"/>
+      <c r="D208" s="642"/>
+      <c r="E208" s="642"/>
+      <c r="F208" s="642"/>
       <c r="G208" s="170"/>
       <c r="H208" s="173"/>
       <c r="I208" s="170"/>
@@ -12083,10 +12084,10 @@
     </row>
     <row r="215" spans="1:23" ht="25.5" customHeight="1">
       <c r="A215" s="400"/>
-      <c r="B215" s="677" t="s">
+      <c r="B215" s="643" t="s">
         <v>43</v>
       </c>
-      <c r="C215" s="677"/>
+      <c r="C215" s="643"/>
       <c r="D215" s="72"/>
       <c r="E215" s="73"/>
       <c r="F215" s="405"/>
@@ -12107,10 +12108,10 @@
     </row>
     <row r="216" spans="1:23" ht="25.5" customHeight="1">
       <c r="A216" s="400"/>
-      <c r="B216" s="672" t="s">
+      <c r="B216" s="635" t="s">
         <v>44</v>
       </c>
-      <c r="C216" s="672"/>
+      <c r="C216" s="635"/>
       <c r="D216" s="74"/>
       <c r="E216" s="75"/>
       <c r="F216" s="409"/>
@@ -12155,10 +12156,10 @@
     </row>
     <row r="218" spans="1:23" s="416" customFormat="1" ht="25.5" customHeight="1">
       <c r="A218" s="413"/>
-      <c r="B218" s="673" t="s">
+      <c r="B218" s="636" t="s">
         <v>46</v>
       </c>
-      <c r="C218" s="673"/>
+      <c r="C218" s="636"/>
       <c r="D218" s="35"/>
       <c r="E218" s="36"/>
       <c r="F218" s="342"/>
@@ -12188,13 +12189,13 @@
       <c r="G219" s="418"/>
       <c r="H219" s="418"/>
       <c r="I219" s="418"/>
-      <c r="J219" s="674">
+      <c r="J219" s="637">
         <f>SUM(M215:M218)</f>
         <v>0</v>
       </c>
-      <c r="K219" s="674"/>
-      <c r="L219" s="674"/>
-      <c r="M219" s="674"/>
+      <c r="K219" s="637"/>
+      <c r="L219" s="637"/>
+      <c r="M219" s="637"/>
       <c r="N219" s="419"/>
       <c r="O219" s="400"/>
       <c r="P219" s="207"/>
@@ -15935,29 +15936,36 @@
       <c r="O606" s="445"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Gz1q09tN8oFN/kuE+MU4uMskvCrGmnghaTq1UxSE5OpXsbMzI5TYQisRrnX8/bcoMJUZreY/MswNdvng8e7VzQ==" saltValue="cul4ldhXYDIvOffIf1bbPw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="65">
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="J219:M219"/>
-    <mergeCell ref="B170:G172"/>
-    <mergeCell ref="B173:F173"/>
-    <mergeCell ref="B174:F174"/>
-    <mergeCell ref="B205:G207"/>
-    <mergeCell ref="B208:F208"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="B134:F134"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="J117:K117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="J118:K118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="J119:K119"/>
-    <mergeCell ref="B130:G132"/>
-    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B15:G17"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="B88:G90"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="J97:K97"/>
     <mergeCell ref="D99:E99"/>
     <mergeCell ref="F99:G99"/>
     <mergeCell ref="H99:I99"/>
@@ -15974,34 +15982,27 @@
     <mergeCell ref="B113:F113"/>
     <mergeCell ref="C116:D116"/>
     <mergeCell ref="F116:G116"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="B88:G90"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B15:G17"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="J118:K118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="B130:G132"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="J219:M219"/>
+    <mergeCell ref="B170:G172"/>
+    <mergeCell ref="B173:F173"/>
+    <mergeCell ref="B174:F174"/>
+    <mergeCell ref="B205:G207"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B215:C215"/>
   </mergeCells>
   <conditionalFormatting sqref="M25:N35 M61:N63 M39:N39">
     <cfRule type="cellIs" dxfId="113" priority="53" operator="greaterThan">
@@ -16259,8 +16260,8 @@
     </row>
     <row r="4" spans="1:29" s="169" customFormat="1" ht="25.5" customHeight="1">
       <c r="A4" s="165"/>
-      <c r="B4" s="637"/>
-      <c r="C4" s="637"/>
+      <c r="B4" s="677"/>
+      <c r="C4" s="677"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="165"/>
@@ -16537,13 +16538,13 @@
       <c r="AC18" s="193"/>
     </row>
     <row r="19" spans="2:29" s="188" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B19" s="657" t="s">
+      <c r="B19" s="640" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="657"/>
-      <c r="D19" s="657"/>
-      <c r="E19" s="657"/>
-      <c r="F19" s="657"/>
+      <c r="C19" s="640"/>
+      <c r="D19" s="640"/>
+      <c r="E19" s="640"/>
+      <c r="F19" s="640"/>
       <c r="G19" s="195"/>
       <c r="H19" s="196"/>
       <c r="I19" s="195"/>
@@ -18736,12 +18737,12 @@
       <c r="E81" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="F81" s="640" t="s">
+      <c r="F81" s="662" t="s">
         <v>23</v>
       </c>
-      <c r="G81" s="640"/>
-      <c r="H81" s="641"/>
-      <c r="I81" s="641"/>
+      <c r="G81" s="662"/>
+      <c r="H81" s="660"/>
+      <c r="I81" s="660"/>
       <c r="J81" s="288" t="s">
         <v>24</v>
       </c>
@@ -18769,13 +18770,13 @@
         <f>F82/720</f>
         <v>1.6666666666666666E-3</v>
       </c>
-      <c r="F82" s="691">
+      <c r="F82" s="679">
         <f>VOLUME_large_SEK</f>
         <v>1.2</v>
       </c>
-      <c r="G82" s="691"/>
-      <c r="H82" s="636"/>
-      <c r="I82" s="636"/>
+      <c r="G82" s="679"/>
+      <c r="H82" s="676"/>
+      <c r="I82" s="676"/>
       <c r="J82" s="294"/>
       <c r="K82" s="550" t="s">
         <v>26</v>
@@ -18801,13 +18802,13 @@
         <f>F83/720</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F83" s="692">
+      <c r="F83" s="680">
         <f>VOLUME_fast_SEK</f>
         <v>3.6</v>
       </c>
-      <c r="G83" s="692"/>
-      <c r="H83" s="645"/>
-      <c r="I83" s="645"/>
+      <c r="G83" s="680"/>
+      <c r="H83" s="670"/>
+      <c r="I83" s="670"/>
       <c r="J83" s="298"/>
       <c r="K83" s="551" t="s">
         <v>26</v>
@@ -18942,13 +18943,13 @@
       <c r="P90" s="192"/>
     </row>
     <row r="91" spans="2:25" s="188" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B91" s="646" t="s">
+      <c r="B91" s="671" t="s">
         <v>195</v>
       </c>
-      <c r="C91" s="646"/>
-      <c r="D91" s="646"/>
-      <c r="E91" s="646"/>
-      <c r="F91" s="646"/>
+      <c r="C91" s="671"/>
+      <c r="D91" s="671"/>
+      <c r="E91" s="671"/>
+      <c r="F91" s="671"/>
       <c r="H91" s="189"/>
       <c r="J91" s="190"/>
       <c r="K91" s="190"/>
@@ -18958,13 +18959,13 @@
       <c r="P91" s="200"/>
     </row>
     <row r="92" spans="2:25" s="315" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B92" s="647" t="s">
+      <c r="B92" s="672" t="s">
         <v>110</v>
       </c>
-      <c r="C92" s="647"/>
-      <c r="D92" s="647"/>
-      <c r="E92" s="647"/>
-      <c r="F92" s="647"/>
+      <c r="C92" s="672"/>
+      <c r="D92" s="672"/>
+      <c r="E92" s="672"/>
+      <c r="F92" s="672"/>
       <c r="G92" s="309"/>
       <c r="H92" s="310"/>
       <c r="I92" s="309"/>
@@ -19023,16 +19024,16 @@
       <c r="C95" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D95" s="640" t="s">
+      <c r="D95" s="662" t="s">
         <v>71</v>
       </c>
-      <c r="E95" s="640"/>
-      <c r="F95" s="640"/>
-      <c r="G95" s="640"/>
-      <c r="H95" s="640"/>
-      <c r="I95" s="640"/>
-      <c r="J95" s="640"/>
-      <c r="K95" s="640"/>
+      <c r="E95" s="662"/>
+      <c r="F95" s="662"/>
+      <c r="G95" s="662"/>
+      <c r="H95" s="662"/>
+      <c r="I95" s="662"/>
+      <c r="J95" s="662"/>
+      <c r="K95" s="662"/>
       <c r="L95" s="289"/>
       <c r="M95" s="286"/>
       <c r="N95" s="286"/>
@@ -19048,17 +19049,17 @@
       <c r="C96" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="D96" s="643">
+      <c r="D96" s="674">
         <f>S3_storage.50_SEK</f>
         <v>350</v>
       </c>
-      <c r="E96" s="643"/>
-      <c r="F96" s="643"/>
-      <c r="G96" s="643"/>
-      <c r="H96" s="643"/>
-      <c r="I96" s="643"/>
-      <c r="J96" s="643"/>
-      <c r="K96" s="643"/>
+      <c r="E96" s="674"/>
+      <c r="F96" s="674"/>
+      <c r="G96" s="674"/>
+      <c r="H96" s="674"/>
+      <c r="I96" s="674"/>
+      <c r="J96" s="674"/>
+      <c r="K96" s="674"/>
       <c r="L96" s="316"/>
       <c r="M96" s="317"/>
       <c r="N96" s="317"/>
@@ -19074,17 +19075,17 @@
       <c r="C97" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="D97" s="651">
+      <c r="D97" s="659">
         <f>S3_storage.100_SEK</f>
         <v>270</v>
       </c>
-      <c r="E97" s="651"/>
-      <c r="F97" s="651"/>
-      <c r="G97" s="651"/>
-      <c r="H97" s="651"/>
-      <c r="I97" s="651"/>
-      <c r="J97" s="651"/>
-      <c r="K97" s="651"/>
+      <c r="E97" s="659"/>
+      <c r="F97" s="659"/>
+      <c r="G97" s="659"/>
+      <c r="H97" s="659"/>
+      <c r="I97" s="659"/>
+      <c r="J97" s="659"/>
+      <c r="K97" s="659"/>
       <c r="L97" s="318"/>
       <c r="M97" s="319"/>
       <c r="N97" s="319"/>
@@ -19100,17 +19101,17 @@
       <c r="C98" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D98" s="649">
+      <c r="D98" s="668">
         <f>S3_storage.500_SEK</f>
         <v>200</v>
       </c>
-      <c r="E98" s="649"/>
-      <c r="F98" s="649"/>
-      <c r="G98" s="649"/>
-      <c r="H98" s="649"/>
-      <c r="I98" s="649"/>
-      <c r="J98" s="649"/>
-      <c r="K98" s="649"/>
+      <c r="E98" s="668"/>
+      <c r="F98" s="668"/>
+      <c r="G98" s="668"/>
+      <c r="H98" s="668"/>
+      <c r="I98" s="668"/>
+      <c r="J98" s="668"/>
+      <c r="K98" s="668"/>
       <c r="L98" s="320"/>
       <c r="M98" s="321"/>
       <c r="N98" s="321"/>
@@ -19126,17 +19127,17 @@
       <c r="C99" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="D99" s="651">
+      <c r="D99" s="659">
         <f>S3_storage.1000_SEK</f>
         <v>185</v>
       </c>
-      <c r="E99" s="651"/>
-      <c r="F99" s="651"/>
-      <c r="G99" s="651"/>
-      <c r="H99" s="651"/>
-      <c r="I99" s="651"/>
-      <c r="J99" s="651"/>
-      <c r="K99" s="651"/>
+      <c r="E99" s="659"/>
+      <c r="F99" s="659"/>
+      <c r="G99" s="659"/>
+      <c r="H99" s="659"/>
+      <c r="I99" s="659"/>
+      <c r="J99" s="659"/>
+      <c r="K99" s="659"/>
       <c r="L99" s="318"/>
       <c r="M99" s="319"/>
       <c r="N99" s="319"/>
@@ -19152,17 +19153,17 @@
       <c r="C100" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D100" s="652" t="str">
+      <c r="D100" s="661" t="str">
         <f>S3_storage.quote_SEK</f>
         <v>Be om offert</v>
       </c>
-      <c r="E100" s="652"/>
-      <c r="F100" s="652"/>
-      <c r="G100" s="652"/>
-      <c r="H100" s="652"/>
-      <c r="I100" s="652"/>
-      <c r="J100" s="652"/>
-      <c r="K100" s="652"/>
+      <c r="E100" s="661"/>
+      <c r="F100" s="661"/>
+      <c r="G100" s="661"/>
+      <c r="H100" s="661"/>
+      <c r="I100" s="661"/>
+      <c r="J100" s="661"/>
+      <c r="K100" s="661"/>
       <c r="L100" s="322"/>
       <c r="M100" s="323"/>
       <c r="N100" s="323"/>
@@ -19223,10 +19224,10 @@
       <c r="E103" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="F103" s="640" t="s">
+      <c r="F103" s="662" t="s">
         <v>71</v>
       </c>
-      <c r="G103" s="640"/>
+      <c r="G103" s="662"/>
       <c r="H103" s="288" t="s">
         <v>72</v>
       </c>
@@ -19253,11 +19254,11 @@
         <f t="array" ref="E104">_xlfn.IFS(H104&lt;1001,F104/720,H104&gt;1000,D100)</f>
         <v>0.4861111111111111</v>
       </c>
-      <c r="F104" s="688" cm="1">
+      <c r="F104" s="682" cm="1">
         <f t="array" ref="F104">_xlfn.IFS(H104&lt;51,D96,H104&lt;101,D97,H104&lt;501,D98,H104&lt;1001,D99,H104&gt;1000,D100)</f>
         <v>350</v>
       </c>
-      <c r="G104" s="689"/>
+      <c r="G104" s="683"/>
       <c r="H104" s="326"/>
       <c r="I104" s="552" t="s">
         <v>73</v>
@@ -19403,13 +19404,13 @@
       <c r="P111" s="192"/>
     </row>
     <row r="112" spans="2:24" s="188" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B112" s="655" t="s">
+      <c r="B112" s="665" t="s">
         <v>299</v>
       </c>
-      <c r="C112" s="655"/>
-      <c r="D112" s="655"/>
-      <c r="E112" s="655"/>
-      <c r="F112" s="655"/>
+      <c r="C112" s="665"/>
+      <c r="D112" s="665"/>
+      <c r="E112" s="665"/>
+      <c r="F112" s="665"/>
       <c r="H112" s="189"/>
       <c r="J112" s="190"/>
       <c r="K112" s="190"/>
@@ -19419,13 +19420,13 @@
       <c r="P112" s="200"/>
     </row>
     <row r="113" spans="1:35" s="188" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B113" s="657" t="s">
+      <c r="B113" s="640" t="s">
         <v>28</v>
       </c>
-      <c r="C113" s="657"/>
-      <c r="D113" s="657"/>
-      <c r="E113" s="657"/>
-      <c r="F113" s="657"/>
+      <c r="C113" s="640"/>
+      <c r="D113" s="640"/>
+      <c r="E113" s="640"/>
+      <c r="F113" s="640"/>
       <c r="G113" s="195"/>
       <c r="H113" s="196"/>
       <c r="I113" s="195"/>
@@ -19495,25 +19496,25 @@
       <c r="B116" s="513" t="s">
         <v>79</v>
       </c>
-      <c r="C116" s="640" t="s">
+      <c r="C116" s="662" t="s">
         <v>34</v>
       </c>
-      <c r="D116" s="640"/>
+      <c r="D116" s="662"/>
       <c r="E116" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="F116" s="640" t="s">
+      <c r="F116" s="662" t="s">
         <v>23</v>
       </c>
-      <c r="G116" s="640"/>
+      <c r="G116" s="662"/>
       <c r="H116" s="288" t="s">
         <v>30</v>
       </c>
       <c r="I116" s="286"/>
-      <c r="J116" s="641" t="s">
+      <c r="J116" s="660" t="s">
         <v>35</v>
       </c>
-      <c r="K116" s="641"/>
+      <c r="K116" s="660"/>
       <c r="L116" s="287"/>
       <c r="M116" s="286"/>
       <c r="N116" s="289" t="s">
@@ -19534,19 +19535,19 @@
       <c r="E117" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="F117" s="681">
+      <c r="F117" s="687">
         <f>BAAS_on.demand_SEK</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="G117" s="682"/>
+      <c r="G117" s="688"/>
       <c r="H117" s="338"/>
       <c r="I117" s="550" t="s">
         <v>26</v>
       </c>
-      <c r="J117" s="661" t="s">
+      <c r="J117" s="647" t="s">
         <v>25</v>
       </c>
-      <c r="K117" s="661"/>
+      <c r="K117" s="647"/>
       <c r="L117" s="339"/>
       <c r="M117" s="295"/>
       <c r="N117" s="297">
@@ -19568,19 +19569,19 @@
       <c r="E118" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F118" s="684">
+      <c r="F118" s="690">
         <f>BAAS_small_SEK</f>
         <v>1.75</v>
       </c>
-      <c r="G118" s="685"/>
+      <c r="G118" s="691"/>
       <c r="H118" s="340"/>
       <c r="I118" s="551" t="s">
         <v>26</v>
       </c>
-      <c r="J118" s="665">
+      <c r="J118" s="651">
         <v>0.75</v>
       </c>
-      <c r="K118" s="666"/>
+      <c r="K118" s="652"/>
       <c r="L118" s="299"/>
       <c r="M118" s="299"/>
       <c r="N118" s="301">
@@ -19602,19 +19603,19 @@
       <c r="E119" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F119" s="686">
+      <c r="F119" s="692">
         <f>BAAS_large_SEK</f>
         <v>0.92</v>
       </c>
-      <c r="G119" s="687"/>
+      <c r="G119" s="693"/>
       <c r="H119" s="326"/>
       <c r="I119" s="552" t="s">
         <v>26</v>
       </c>
-      <c r="J119" s="670">
+      <c r="J119" s="656">
         <v>0.75</v>
       </c>
-      <c r="K119" s="671"/>
+      <c r="K119" s="657"/>
       <c r="L119" s="327"/>
       <c r="M119" s="327"/>
       <c r="N119" s="330">
@@ -19929,13 +19930,13 @@
       <c r="P132" s="221"/>
     </row>
     <row r="133" spans="2:22" s="188" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B133" s="657" t="s">
+      <c r="B133" s="640" t="s">
         <v>28</v>
       </c>
-      <c r="C133" s="657"/>
-      <c r="D133" s="657"/>
-      <c r="E133" s="657"/>
-      <c r="F133" s="657"/>
+      <c r="C133" s="640"/>
+      <c r="D133" s="640"/>
+      <c r="E133" s="640"/>
+      <c r="F133" s="640"/>
       <c r="H133" s="189"/>
       <c r="J133" s="190"/>
       <c r="K133" s="190"/>
@@ -19945,11 +19946,11 @@
       <c r="P133" s="221"/>
     </row>
     <row r="134" spans="2:22" s="188" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B134" s="657"/>
-      <c r="C134" s="657"/>
-      <c r="D134" s="657"/>
-      <c r="E134" s="657"/>
-      <c r="F134" s="657"/>
+      <c r="B134" s="640"/>
+      <c r="C134" s="640"/>
+      <c r="D134" s="640"/>
+      <c r="E134" s="640"/>
+      <c r="F134" s="640"/>
       <c r="G134" s="195"/>
       <c r="H134" s="196"/>
       <c r="I134" s="195"/>
@@ -20692,11 +20693,11 @@
       <c r="J161" s="349"/>
       <c r="K161" s="349"/>
       <c r="L161" s="350"/>
-      <c r="M161" s="683">
+      <c r="M161" s="689">
         <f>PAAS_man.kubernetes_SEK</f>
         <v>49000</v>
       </c>
-      <c r="N161" s="683"/>
+      <c r="N161" s="689"/>
       <c r="O161" s="169"/>
       <c r="P161" s="221"/>
       <c r="Q161" s="169"/>
@@ -20720,11 +20721,11 @@
       <c r="J162" s="353"/>
       <c r="K162" s="353"/>
       <c r="L162" s="354"/>
-      <c r="M162" s="678">
+      <c r="M162" s="684">
         <f>PAAS_man.postgres.sql_SEK</f>
         <v>19500</v>
       </c>
-      <c r="N162" s="678"/>
+      <c r="N162" s="684"/>
       <c r="O162" s="169"/>
       <c r="P162" s="221"/>
       <c r="Q162" s="169"/>
@@ -20748,11 +20749,11 @@
       <c r="J163" s="349"/>
       <c r="K163" s="349"/>
       <c r="L163" s="350"/>
-      <c r="M163" s="679">
+      <c r="M163" s="685">
         <f>PAAS_man.elasticsearch_SEK</f>
         <v>19500</v>
       </c>
-      <c r="N163" s="679"/>
+      <c r="N163" s="685"/>
       <c r="O163" s="169"/>
       <c r="P163" s="221"/>
       <c r="Q163" s="169"/>
@@ -20776,11 +20777,11 @@
       <c r="J164" s="353"/>
       <c r="K164" s="353"/>
       <c r="L164" s="354"/>
-      <c r="M164" s="678">
+      <c r="M164" s="684">
         <f>PAAS_man.redis_SEK</f>
         <v>19000</v>
       </c>
-      <c r="N164" s="678"/>
+      <c r="N164" s="684"/>
       <c r="O164" s="169"/>
       <c r="P164" s="221"/>
       <c r="Q164" s="169"/>
@@ -20804,11 +20805,11 @@
       <c r="J165" s="349"/>
       <c r="K165" s="349"/>
       <c r="L165" s="350"/>
-      <c r="M165" s="679">
+      <c r="M165" s="685">
         <f>PAAS_man.nats_SEK</f>
         <v>19500</v>
       </c>
-      <c r="N165" s="679"/>
+      <c r="N165" s="685"/>
       <c r="O165" s="169"/>
       <c r="P165" s="221"/>
       <c r="Q165" s="169"/>
@@ -20832,11 +20833,11 @@
       <c r="J166" s="353"/>
       <c r="K166" s="353"/>
       <c r="L166" s="354"/>
-      <c r="M166" s="680">
+      <c r="M166" s="686">
         <f>PAAS_man.mariadb_SEK</f>
         <v>19500</v>
       </c>
-      <c r="N166" s="680"/>
+      <c r="N166" s="686"/>
       <c r="O166" s="169"/>
       <c r="P166" s="221"/>
       <c r="Q166" s="169"/>
@@ -20945,13 +20946,13 @@
       <c r="P172" s="221"/>
     </row>
     <row r="173" spans="2:23" s="188" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B173" s="657" t="s">
+      <c r="B173" s="640" t="s">
         <v>28</v>
       </c>
-      <c r="C173" s="657"/>
-      <c r="D173" s="657"/>
-      <c r="E173" s="657"/>
-      <c r="F173" s="657"/>
+      <c r="C173" s="640"/>
+      <c r="D173" s="640"/>
+      <c r="E173" s="640"/>
+      <c r="F173" s="640"/>
       <c r="H173" s="375"/>
       <c r="J173" s="190"/>
       <c r="K173" s="190"/>
@@ -20961,11 +20962,11 @@
       <c r="P173" s="221"/>
     </row>
     <row r="174" spans="2:23" s="188" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B174" s="657"/>
-      <c r="C174" s="657"/>
-      <c r="D174" s="657"/>
-      <c r="E174" s="657"/>
-      <c r="F174" s="657"/>
+      <c r="B174" s="640"/>
+      <c r="C174" s="640"/>
+      <c r="D174" s="640"/>
+      <c r="E174" s="640"/>
+      <c r="F174" s="640"/>
       <c r="G174" s="195"/>
       <c r="H174" s="196"/>
       <c r="I174" s="195"/>
@@ -21766,14 +21767,14 @@
     </row>
     <row r="205" spans="1:23" s="188" customFormat="1" ht="25.5" customHeight="1">
       <c r="A205" s="170"/>
-      <c r="B205" s="675" t="s">
+      <c r="B205" s="641" t="s">
         <v>42</v>
       </c>
-      <c r="C205" s="675"/>
-      <c r="D205" s="675"/>
-      <c r="E205" s="675"/>
-      <c r="F205" s="675"/>
-      <c r="G205" s="675"/>
+      <c r="C205" s="641"/>
+      <c r="D205" s="641"/>
+      <c r="E205" s="641"/>
+      <c r="F205" s="641"/>
+      <c r="G205" s="641"/>
       <c r="H205" s="173"/>
       <c r="I205" s="170"/>
       <c r="J205" s="174"/>
@@ -21786,12 +21787,12 @@
     </row>
     <row r="206" spans="1:23" s="188" customFormat="1" ht="25.5" customHeight="1">
       <c r="A206" s="170"/>
-      <c r="B206" s="675"/>
-      <c r="C206" s="675"/>
-      <c r="D206" s="675"/>
-      <c r="E206" s="675"/>
-      <c r="F206" s="675"/>
-      <c r="G206" s="675"/>
+      <c r="B206" s="641"/>
+      <c r="C206" s="641"/>
+      <c r="D206" s="641"/>
+      <c r="E206" s="641"/>
+      <c r="F206" s="641"/>
+      <c r="G206" s="641"/>
       <c r="H206" s="173"/>
       <c r="I206" s="170"/>
       <c r="J206" s="174"/>
@@ -21804,12 +21805,12 @@
     </row>
     <row r="207" spans="1:23" s="188" customFormat="1" ht="25.5" customHeight="1">
       <c r="A207" s="170"/>
-      <c r="B207" s="675"/>
-      <c r="C207" s="675"/>
-      <c r="D207" s="675"/>
-      <c r="E207" s="675"/>
-      <c r="F207" s="675"/>
-      <c r="G207" s="675"/>
+      <c r="B207" s="641"/>
+      <c r="C207" s="641"/>
+      <c r="D207" s="641"/>
+      <c r="E207" s="641"/>
+      <c r="F207" s="641"/>
+      <c r="G207" s="641"/>
       <c r="H207" s="173"/>
       <c r="I207" s="170"/>
       <c r="J207" s="174"/>
@@ -21822,13 +21823,13 @@
     </row>
     <row r="208" spans="1:23" s="188" customFormat="1" ht="25.5" customHeight="1">
       <c r="A208" s="170"/>
-      <c r="B208" s="690" t="s">
+      <c r="B208" s="681" t="s">
         <v>28</v>
       </c>
-      <c r="C208" s="690"/>
-      <c r="D208" s="690"/>
-      <c r="E208" s="690"/>
-      <c r="F208" s="690"/>
+      <c r="C208" s="681"/>
+      <c r="D208" s="681"/>
+      <c r="E208" s="681"/>
+      <c r="F208" s="681"/>
       <c r="G208" s="170"/>
       <c r="H208" s="173"/>
       <c r="I208" s="170"/>
@@ -21968,10 +21969,10 @@
     </row>
     <row r="215" spans="1:23" ht="25.5" customHeight="1">
       <c r="A215" s="400"/>
-      <c r="B215" s="677" t="s">
+      <c r="B215" s="643" t="s">
         <v>43</v>
       </c>
-      <c r="C215" s="677"/>
+      <c r="C215" s="643"/>
       <c r="D215" s="72"/>
       <c r="E215" s="73"/>
       <c r="F215" s="405"/>
@@ -21992,10 +21993,10 @@
     </row>
     <row r="216" spans="1:23" ht="25.5" customHeight="1">
       <c r="A216" s="400"/>
-      <c r="B216" s="672" t="s">
+      <c r="B216" s="635" t="s">
         <v>44</v>
       </c>
-      <c r="C216" s="672"/>
+      <c r="C216" s="635"/>
       <c r="D216" s="74"/>
       <c r="E216" s="75"/>
       <c r="F216" s="409"/>
@@ -22040,10 +22041,10 @@
     </row>
     <row r="218" spans="1:23" s="416" customFormat="1" ht="25.5" customHeight="1">
       <c r="A218" s="413"/>
-      <c r="B218" s="673" t="s">
+      <c r="B218" s="636" t="s">
         <v>46</v>
       </c>
-      <c r="C218" s="673"/>
+      <c r="C218" s="636"/>
       <c r="D218" s="35"/>
       <c r="E218" s="36"/>
       <c r="F218" s="342"/>
@@ -22073,13 +22074,13 @@
       <c r="G219" s="418"/>
       <c r="H219" s="418"/>
       <c r="I219" s="418"/>
-      <c r="J219" s="693">
+      <c r="J219" s="678">
         <f>SUM(M215:M218)</f>
         <v>0</v>
       </c>
-      <c r="K219" s="693"/>
-      <c r="L219" s="693"/>
-      <c r="M219" s="693"/>
+      <c r="K219" s="678"/>
+      <c r="L219" s="678"/>
+      <c r="M219" s="678"/>
       <c r="N219" s="419"/>
       <c r="O219" s="400"/>
       <c r="P219" s="207"/>
@@ -25820,17 +25821,51 @@
       <c r="O606" s="445"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Hxf4heWY0DFxjqgjWQYhF1UABzDE2oDVP0WDdPPFEEp97ruatMPdCtI/2Az+tD5JOeuDf16BB6TXDuE8t1qvIA==" saltValue="IWu447F9tcdDjFYWz0r4eg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="68">
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="M164:N164"/>
+    <mergeCell ref="M165:N165"/>
+    <mergeCell ref="M166:N166"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="M161:N161"/>
+    <mergeCell ref="M162:N162"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="J118:K118"/>
+    <mergeCell ref="B88:G90"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B109:G111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="B205:G207"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="B130:G132"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="B170:G172"/>
+    <mergeCell ref="B173:F173"/>
+    <mergeCell ref="B174:F174"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="B15:G17"/>
+    <mergeCell ref="B19:F19"/>
     <mergeCell ref="J219:M219"/>
     <mergeCell ref="D95:E95"/>
     <mergeCell ref="D96:E96"/>
@@ -25847,49 +25882,15 @@
     <mergeCell ref="H96:I96"/>
     <mergeCell ref="H95:I95"/>
     <mergeCell ref="J116:K116"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="B15:G17"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B113:F113"/>
-    <mergeCell ref="B205:G207"/>
-    <mergeCell ref="B208:F208"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="B130:G132"/>
-    <mergeCell ref="B134:F134"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="B170:G172"/>
-    <mergeCell ref="B173:F173"/>
-    <mergeCell ref="B174:F174"/>
-    <mergeCell ref="B88:G90"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="B109:G111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="M164:N164"/>
-    <mergeCell ref="M165:N165"/>
-    <mergeCell ref="M166:N166"/>
-    <mergeCell ref="J117:K117"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="M161:N161"/>
-    <mergeCell ref="M162:N162"/>
-    <mergeCell ref="M163:N163"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="J119:K119"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="J118:K118"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="H97:I97"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="M25:N35 M61:N63 M39:N39">
@@ -26143,8 +26144,8 @@
     </row>
     <row r="4" spans="1:29" s="169" customFormat="1" ht="25.5" customHeight="1">
       <c r="A4" s="165"/>
-      <c r="B4" s="637"/>
-      <c r="C4" s="637"/>
+      <c r="B4" s="677"/>
+      <c r="C4" s="677"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="165"/>
@@ -26421,13 +26422,13 @@
       <c r="AC18" s="193"/>
     </row>
     <row r="19" spans="2:29" s="188" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B19" s="657" t="s">
+      <c r="B19" s="640" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="657"/>
-      <c r="D19" s="657"/>
-      <c r="E19" s="657"/>
-      <c r="F19" s="657"/>
+      <c r="C19" s="640"/>
+      <c r="D19" s="640"/>
+      <c r="E19" s="640"/>
+      <c r="F19" s="640"/>
       <c r="G19" s="195"/>
       <c r="H19" s="196"/>
       <c r="I19" s="195"/>
@@ -29498,12 +29499,12 @@
       <c r="E98" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="F98" s="640" t="s">
+      <c r="F98" s="662" t="s">
         <v>23</v>
       </c>
-      <c r="G98" s="640"/>
-      <c r="H98" s="641"/>
-      <c r="I98" s="641"/>
+      <c r="G98" s="662"/>
+      <c r="H98" s="660"/>
+      <c r="I98" s="660"/>
       <c r="J98" s="288" t="s">
         <v>24</v>
       </c>
@@ -29531,13 +29532,13 @@
         <f>F99/720</f>
         <v>1.6666666666666666E-3</v>
       </c>
-      <c r="F99" s="691">
+      <c r="F99" s="679">
         <f>VOLUME_large_SEK</f>
         <v>1.2</v>
       </c>
-      <c r="G99" s="691"/>
-      <c r="H99" s="636"/>
-      <c r="I99" s="636"/>
+      <c r="G99" s="679"/>
+      <c r="H99" s="676"/>
+      <c r="I99" s="676"/>
       <c r="J99" s="294">
         <v>260</v>
       </c>
@@ -29565,13 +29566,13 @@
         <f>F100/720</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F100" s="692">
+      <c r="F100" s="680">
         <f>VOLUME_fast_SEK</f>
         <v>3.6</v>
       </c>
-      <c r="G100" s="692"/>
-      <c r="H100" s="645"/>
-      <c r="I100" s="645"/>
+      <c r="G100" s="680"/>
+      <c r="H100" s="670"/>
+      <c r="I100" s="670"/>
       <c r="J100" s="298">
         <v>0</v>
       </c>
@@ -29708,13 +29709,13 @@
       <c r="P107" s="192"/>
     </row>
     <row r="108" spans="2:25" s="188" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B108" s="646" t="s">
+      <c r="B108" s="671" t="s">
         <v>195</v>
       </c>
-      <c r="C108" s="646"/>
-      <c r="D108" s="646"/>
-      <c r="E108" s="646"/>
-      <c r="F108" s="646"/>
+      <c r="C108" s="671"/>
+      <c r="D108" s="671"/>
+      <c r="E108" s="671"/>
+      <c r="F108" s="671"/>
       <c r="H108" s="189"/>
       <c r="J108" s="190"/>
       <c r="K108" s="190"/>
@@ -29724,13 +29725,13 @@
       <c r="P108" s="200"/>
     </row>
     <row r="109" spans="2:25" s="315" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B109" s="647" t="s">
+      <c r="B109" s="672" t="s">
         <v>347</v>
       </c>
-      <c r="C109" s="647"/>
-      <c r="D109" s="647"/>
-      <c r="E109" s="647"/>
-      <c r="F109" s="647"/>
+      <c r="C109" s="672"/>
+      <c r="D109" s="672"/>
+      <c r="E109" s="672"/>
+      <c r="F109" s="672"/>
       <c r="G109" s="309"/>
       <c r="H109" s="310"/>
       <c r="I109" s="309"/>
@@ -29789,16 +29790,16 @@
       <c r="C112" s="604" t="s">
         <v>72</v>
       </c>
-      <c r="D112" s="640" t="s">
+      <c r="D112" s="662" t="s">
         <v>343</v>
       </c>
-      <c r="E112" s="640"/>
-      <c r="F112" s="640"/>
-      <c r="G112" s="640"/>
-      <c r="H112" s="640"/>
-      <c r="I112" s="640"/>
-      <c r="J112" s="640"/>
-      <c r="K112" s="640"/>
+      <c r="E112" s="662"/>
+      <c r="F112" s="662"/>
+      <c r="G112" s="662"/>
+      <c r="H112" s="662"/>
+      <c r="I112" s="662"/>
+      <c r="J112" s="662"/>
+      <c r="K112" s="662"/>
       <c r="L112" s="562"/>
       <c r="M112" s="286"/>
       <c r="N112" s="286"/>
@@ -29814,17 +29815,17 @@
       <c r="C113" s="605" t="s">
         <v>341</v>
       </c>
-      <c r="D113" s="699">
+      <c r="D113" s="697">
         <f>S3_storage.50_SUNET</f>
         <v>0.35</v>
       </c>
-      <c r="E113" s="699"/>
-      <c r="F113" s="643"/>
-      <c r="G113" s="643"/>
-      <c r="H113" s="643"/>
-      <c r="I113" s="643"/>
-      <c r="J113" s="643"/>
-      <c r="K113" s="643"/>
+      <c r="E113" s="697"/>
+      <c r="F113" s="674"/>
+      <c r="G113" s="674"/>
+      <c r="H113" s="674"/>
+      <c r="I113" s="674"/>
+      <c r="J113" s="674"/>
+      <c r="K113" s="674"/>
       <c r="L113" s="565"/>
       <c r="M113" s="317"/>
       <c r="N113" s="317"/>
@@ -29840,17 +29841,17 @@
       <c r="C114" s="606" t="s">
         <v>342</v>
       </c>
-      <c r="D114" s="698">
+      <c r="D114" s="696">
         <f>S3_storage.100_SUNET</f>
         <v>0.19</v>
       </c>
-      <c r="E114" s="698"/>
-      <c r="F114" s="651"/>
-      <c r="G114" s="651"/>
-      <c r="H114" s="651"/>
-      <c r="I114" s="651"/>
-      <c r="J114" s="651"/>
-      <c r="K114" s="651"/>
+      <c r="E114" s="696"/>
+      <c r="F114" s="659"/>
+      <c r="G114" s="659"/>
+      <c r="H114" s="659"/>
+      <c r="I114" s="659"/>
+      <c r="J114" s="659"/>
+      <c r="K114" s="659"/>
       <c r="L114" s="564"/>
       <c r="M114" s="319"/>
       <c r="N114" s="319"/>
@@ -29866,17 +29867,17 @@
       <c r="C115" s="605" t="s">
         <v>344</v>
       </c>
-      <c r="D115" s="697">
+      <c r="D115" s="698">
         <f>S3_storage.500_SUNET</f>
         <v>0.1</v>
       </c>
-      <c r="E115" s="697"/>
-      <c r="F115" s="649"/>
-      <c r="G115" s="649"/>
-      <c r="H115" s="649"/>
-      <c r="I115" s="649"/>
-      <c r="J115" s="649"/>
-      <c r="K115" s="649"/>
+      <c r="E115" s="698"/>
+      <c r="F115" s="668"/>
+      <c r="G115" s="668"/>
+      <c r="H115" s="668"/>
+      <c r="I115" s="668"/>
+      <c r="J115" s="668"/>
+      <c r="K115" s="668"/>
       <c r="L115" s="566"/>
       <c r="M115" s="321"/>
       <c r="N115" s="321"/>
@@ -29892,17 +29893,17 @@
       <c r="C116" s="606" t="s">
         <v>345</v>
       </c>
-      <c r="D116" s="698">
+      <c r="D116" s="696">
         <f>S3_storage.1000_SUNET</f>
         <v>0.06</v>
       </c>
-      <c r="E116" s="698"/>
-      <c r="F116" s="651"/>
-      <c r="G116" s="651"/>
-      <c r="H116" s="651"/>
-      <c r="I116" s="651"/>
-      <c r="J116" s="651"/>
-      <c r="K116" s="651"/>
+      <c r="E116" s="696"/>
+      <c r="F116" s="659"/>
+      <c r="G116" s="659"/>
+      <c r="H116" s="659"/>
+      <c r="I116" s="659"/>
+      <c r="J116" s="659"/>
+      <c r="K116" s="659"/>
       <c r="L116" s="564"/>
       <c r="M116" s="319"/>
       <c r="N116" s="319"/>
@@ -29918,17 +29919,17 @@
       <c r="C117" s="605" t="s">
         <v>120</v>
       </c>
-      <c r="D117" s="696">
+      <c r="D117" s="699">
         <f>S3_storage.quote_SUNET</f>
         <v>0</v>
       </c>
-      <c r="E117" s="696"/>
-      <c r="F117" s="652"/>
-      <c r="G117" s="652"/>
-      <c r="H117" s="652"/>
-      <c r="I117" s="652"/>
-      <c r="J117" s="652"/>
-      <c r="K117" s="652"/>
+      <c r="E117" s="699"/>
+      <c r="F117" s="661"/>
+      <c r="G117" s="661"/>
+      <c r="H117" s="661"/>
+      <c r="I117" s="661"/>
+      <c r="J117" s="661"/>
+      <c r="K117" s="661"/>
       <c r="L117" s="567"/>
       <c r="M117" s="323"/>
       <c r="N117" s="323"/>
@@ -29989,10 +29990,10 @@
       <c r="E120" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="F120" s="640" t="s">
+      <c r="F120" s="662" t="s">
         <v>23</v>
       </c>
-      <c r="G120" s="640"/>
+      <c r="G120" s="662"/>
       <c r="H120" s="288" t="s">
         <v>72</v>
       </c>
@@ -30021,11 +30022,11 @@
         <f>F121/720</f>
         <v>4.861111111111111E-4</v>
       </c>
-      <c r="F121" s="688" cm="1">
+      <c r="F121" s="682" cm="1">
         <f t="array" ref="F121">_xlfn.IFS(H121&lt;=299,D113,H121&lt;1000,D114,H121&lt;2000,D115,H121&gt;=2000,D116)</f>
         <v>0.35</v>
       </c>
-      <c r="G121" s="689"/>
+      <c r="G121" s="683"/>
       <c r="H121" s="326">
         <v>0</v>
       </c>
@@ -30038,11 +30039,11 @@
         <v>6 månader</v>
       </c>
       <c r="L121" s="328"/>
-      <c r="M121" s="700">
+      <c r="M121" s="694">
         <f>ROUNDUP((H121*1000)*F121,2)</f>
         <v>0</v>
       </c>
-      <c r="N121" s="700"/>
+      <c r="N121" s="694"/>
       <c r="O121" s="325"/>
       <c r="P121" s="283"/>
       <c r="R121" s="267"/>
@@ -30062,11 +30063,11 @@
       <c r="J122" s="233"/>
       <c r="K122" s="331"/>
       <c r="L122" s="331"/>
-      <c r="M122" s="701">
+      <c r="M122" s="695">
         <f>SUM(M121)</f>
         <v>0</v>
       </c>
-      <c r="N122" s="701"/>
+      <c r="N122" s="695"/>
       <c r="O122" s="325"/>
       <c r="P122" s="221"/>
       <c r="R122" s="193"/>
@@ -30176,13 +30177,13 @@
       <c r="P128" s="192"/>
     </row>
     <row r="129" spans="1:35" s="188" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B129" s="655" t="s">
+      <c r="B129" s="665" t="s">
         <v>299</v>
       </c>
-      <c r="C129" s="655"/>
-      <c r="D129" s="655"/>
-      <c r="E129" s="655"/>
-      <c r="F129" s="655"/>
+      <c r="C129" s="665"/>
+      <c r="D129" s="665"/>
+      <c r="E129" s="665"/>
+      <c r="F129" s="665"/>
       <c r="H129" s="189"/>
       <c r="J129" s="190"/>
       <c r="K129" s="190"/>
@@ -30192,13 +30193,13 @@
       <c r="P129" s="200"/>
     </row>
     <row r="130" spans="1:35" s="188" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B130" s="657" t="s">
+      <c r="B130" s="640" t="s">
         <v>28</v>
       </c>
-      <c r="C130" s="657"/>
-      <c r="D130" s="657"/>
-      <c r="E130" s="657"/>
-      <c r="F130" s="657"/>
+      <c r="C130" s="640"/>
+      <c r="D130" s="640"/>
+      <c r="E130" s="640"/>
+      <c r="F130" s="640"/>
       <c r="G130" s="195"/>
       <c r="H130" s="196"/>
       <c r="I130" s="195"/>
@@ -30268,25 +30269,25 @@
       <c r="B133" s="513" t="s">
         <v>79</v>
       </c>
-      <c r="C133" s="640" t="s">
+      <c r="C133" s="662" t="s">
         <v>34</v>
       </c>
-      <c r="D133" s="640"/>
+      <c r="D133" s="662"/>
       <c r="E133" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="F133" s="640" t="s">
+      <c r="F133" s="662" t="s">
         <v>23</v>
       </c>
-      <c r="G133" s="640"/>
+      <c r="G133" s="662"/>
       <c r="H133" s="288" t="s">
         <v>30</v>
       </c>
       <c r="I133" s="286"/>
-      <c r="J133" s="641" t="s">
+      <c r="J133" s="660" t="s">
         <v>35</v>
       </c>
-      <c r="K133" s="641"/>
+      <c r="K133" s="660"/>
       <c r="L133" s="563"/>
       <c r="M133" s="286"/>
       <c r="N133" s="562" t="s">
@@ -30307,21 +30308,21 @@
       <c r="E134" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="F134" s="681">
+      <c r="F134" s="687">
         <f>BAAS_on.demand_SEK</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="G134" s="682"/>
+      <c r="G134" s="688"/>
       <c r="H134" s="338">
         <v>0</v>
       </c>
       <c r="I134" s="550" t="s">
         <v>26</v>
       </c>
-      <c r="J134" s="661" t="s">
+      <c r="J134" s="647" t="s">
         <v>25</v>
       </c>
-      <c r="K134" s="661"/>
+      <c r="K134" s="647"/>
       <c r="L134" s="339"/>
       <c r="M134" s="295"/>
       <c r="N134" s="297">
@@ -30343,21 +30344,21 @@
       <c r="E135" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F135" s="684">
+      <c r="F135" s="690">
         <f>BAAS_small_SEK</f>
         <v>1.75</v>
       </c>
-      <c r="G135" s="685"/>
+      <c r="G135" s="691"/>
       <c r="H135" s="340">
         <v>0</v>
       </c>
       <c r="I135" s="551" t="s">
         <v>26</v>
       </c>
-      <c r="J135" s="665">
+      <c r="J135" s="651">
         <v>0.75</v>
       </c>
-      <c r="K135" s="666"/>
+      <c r="K135" s="652"/>
       <c r="L135" s="299"/>
       <c r="M135" s="299"/>
       <c r="N135" s="301">
@@ -30379,21 +30380,21 @@
       <c r="E136" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F136" s="686">
+      <c r="F136" s="692">
         <f>BAAS_large_SEK</f>
         <v>0.92</v>
       </c>
-      <c r="G136" s="687"/>
+      <c r="G136" s="693"/>
       <c r="H136" s="326">
         <v>0</v>
       </c>
       <c r="I136" s="552" t="s">
         <v>26</v>
       </c>
-      <c r="J136" s="670">
+      <c r="J136" s="656">
         <v>0.75</v>
       </c>
-      <c r="K136" s="671"/>
+      <c r="K136" s="657"/>
       <c r="L136" s="327"/>
       <c r="M136" s="327"/>
       <c r="N136" s="330">
@@ -30717,14 +30718,14 @@
     </row>
     <row r="150" spans="1:23" s="188" customFormat="1" ht="25.5" customHeight="1">
       <c r="A150" s="170"/>
-      <c r="B150" s="675" t="s">
+      <c r="B150" s="641" t="s">
         <v>42</v>
       </c>
-      <c r="C150" s="675"/>
-      <c r="D150" s="675"/>
-      <c r="E150" s="675"/>
-      <c r="F150" s="675"/>
-      <c r="G150" s="675"/>
+      <c r="C150" s="641"/>
+      <c r="D150" s="641"/>
+      <c r="E150" s="641"/>
+      <c r="F150" s="641"/>
+      <c r="G150" s="641"/>
       <c r="H150" s="173"/>
       <c r="I150" s="170"/>
       <c r="J150" s="174"/>
@@ -30737,12 +30738,12 @@
     </row>
     <row r="151" spans="1:23" s="188" customFormat="1" ht="25.5" customHeight="1">
       <c r="A151" s="170"/>
-      <c r="B151" s="675"/>
-      <c r="C151" s="675"/>
-      <c r="D151" s="675"/>
-      <c r="E151" s="675"/>
-      <c r="F151" s="675"/>
-      <c r="G151" s="675"/>
+      <c r="B151" s="641"/>
+      <c r="C151" s="641"/>
+      <c r="D151" s="641"/>
+      <c r="E151" s="641"/>
+      <c r="F151" s="641"/>
+      <c r="G151" s="641"/>
       <c r="H151" s="173"/>
       <c r="I151" s="170"/>
       <c r="J151" s="174"/>
@@ -30755,12 +30756,12 @@
     </row>
     <row r="152" spans="1:23" s="188" customFormat="1" ht="25.5" customHeight="1">
       <c r="A152" s="170"/>
-      <c r="B152" s="675"/>
-      <c r="C152" s="675"/>
-      <c r="D152" s="675"/>
-      <c r="E152" s="675"/>
-      <c r="F152" s="675"/>
-      <c r="G152" s="675"/>
+      <c r="B152" s="641"/>
+      <c r="C152" s="641"/>
+      <c r="D152" s="641"/>
+      <c r="E152" s="641"/>
+      <c r="F152" s="641"/>
+      <c r="G152" s="641"/>
       <c r="H152" s="173"/>
       <c r="I152" s="170"/>
       <c r="J152" s="174"/>
@@ -30773,13 +30774,13 @@
     </row>
     <row r="153" spans="1:23" s="188" customFormat="1" ht="25.5" customHeight="1">
       <c r="A153" s="170"/>
-      <c r="B153" s="690" t="s">
+      <c r="B153" s="681" t="s">
         <v>28</v>
       </c>
-      <c r="C153" s="690"/>
-      <c r="D153" s="690"/>
-      <c r="E153" s="690"/>
-      <c r="F153" s="690"/>
+      <c r="C153" s="681"/>
+      <c r="D153" s="681"/>
+      <c r="E153" s="681"/>
+      <c r="F153" s="681"/>
       <c r="G153" s="170"/>
       <c r="H153" s="173"/>
       <c r="I153" s="170"/>
@@ -30919,10 +30920,10 @@
     </row>
     <row r="160" spans="1:23" ht="25.5" customHeight="1">
       <c r="A160" s="400"/>
-      <c r="B160" s="677" t="s">
+      <c r="B160" s="643" t="s">
         <v>43</v>
       </c>
-      <c r="C160" s="677"/>
+      <c r="C160" s="643"/>
       <c r="D160" s="72"/>
       <c r="E160" s="73"/>
       <c r="F160" s="405"/>
@@ -30943,10 +30944,10 @@
     </row>
     <row r="161" spans="1:17" ht="25.5" customHeight="1">
       <c r="A161" s="400"/>
-      <c r="B161" s="672" t="s">
+      <c r="B161" s="635" t="s">
         <v>44</v>
       </c>
-      <c r="C161" s="672"/>
+      <c r="C161" s="635"/>
       <c r="D161" s="74"/>
       <c r="E161" s="75"/>
       <c r="F161" s="409"/>
@@ -30991,10 +30992,10 @@
     </row>
     <row r="163" spans="1:17" s="416" customFormat="1" ht="25.5" customHeight="1">
       <c r="A163" s="413"/>
-      <c r="B163" s="695" t="s">
+      <c r="B163" s="701" t="s">
         <v>46</v>
       </c>
-      <c r="C163" s="695"/>
+      <c r="C163" s="701"/>
       <c r="D163" s="35"/>
       <c r="E163" s="36"/>
       <c r="F163" s="342"/>
@@ -31024,13 +31025,13 @@
       <c r="G164" s="418"/>
       <c r="H164" s="418"/>
       <c r="I164" s="418"/>
-      <c r="J164" s="694">
+      <c r="J164" s="700">
         <f>SUM(M160:M163)</f>
         <v>312</v>
       </c>
-      <c r="K164" s="694"/>
-      <c r="L164" s="694"/>
-      <c r="M164" s="694"/>
+      <c r="K164" s="700"/>
+      <c r="L164" s="700"/>
+      <c r="M164" s="700"/>
       <c r="N164" s="419"/>
       <c r="O164" s="400"/>
       <c r="P164" s="207"/>
@@ -34819,8 +34820,50 @@
       <c r="O553" s="445"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="voYZPtRVIkicfFGQztzw8NWJ//dKgFKz4KdYZD4qgZo0iOd+W9GhXFafeO4D3b2UHqRNF73KZDHh36ey4GsREQ==" saltValue="uQZJa/PB98w+/Z9/MUsNdA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="58">
+    <mergeCell ref="J164:M164"/>
+    <mergeCell ref="F134:G134"/>
+    <mergeCell ref="J134:K134"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="J135:K135"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="J136:K136"/>
+    <mergeCell ref="B150:G152"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="J133:K133"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="B126:G128"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="J116:K116"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="H112:I112"/>
     <mergeCell ref="M121:N121"/>
     <mergeCell ref="M122:N122"/>
     <mergeCell ref="F99:G99"/>
@@ -34837,48 +34880,6 @@
     <mergeCell ref="F100:G100"/>
     <mergeCell ref="H100:I100"/>
     <mergeCell ref="B105:G107"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="J116:K116"/>
-    <mergeCell ref="J133:K133"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="J117:K117"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="B126:G128"/>
-    <mergeCell ref="B129:F129"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="J164:M164"/>
-    <mergeCell ref="F134:G134"/>
-    <mergeCell ref="J134:K134"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="J135:K135"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="J136:K136"/>
-    <mergeCell ref="B150:G152"/>
-    <mergeCell ref="B153:F153"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B163:C163"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="M25:N35 M61:N63 M39:N39">
@@ -35048,7 +35049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569B51D8-70CF-F642-A2B5-EAC405C5F533}">
   <dimension ref="B1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
@@ -36392,6 +36393,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="jhzxcM+nQsfs/CrRGKyE338+lD+q6hKTi3zbi2OJT++ZrbjpA4F9G67upYFUnqnyxYTjYiHTy4FgCB3Jj6D5bg==" saltValue="z/Yui2R3WHRkQ0JqyUKN2A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J9">
     <cfRule type="cellIs" dxfId="27" priority="39" operator="greaterThan">
@@ -36755,18 +36757,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36789,14 +36791,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64C46745-0CBD-4C75-8F94-6E13A1C2423A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{198DA55C-3E04-43BC-9C10-F76F453885EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -36811,4 +36805,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64C46745-0CBD-4C75-8F94-6E13A1C2423A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>